--- a/Sheets/角色表.xlsx
+++ b/Sheets/角色表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UserDocuments\GamesDesign\UnityXmlRW\Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF68A29F-154E-4B6B-B6AF-6D1407571484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{167931CA-5ABB-41F7-B85E-CE44A1C3096E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,10 +80,6 @@
   </si>
   <si>
     <t>C:\UserDocuments\GamesDesign\UnityXmlRW\FMP\Assets\Resources\Xmls\Dialogues\Characters\characters.xml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Images/senpai</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -513,7 +509,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -528,7 +524,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -541,9 +537,7 @@
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
@@ -553,7 +547,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -561,7 +555,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -569,7 +563,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -577,7 +571,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -585,10 +579,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Sheets/角色表.xlsx
+++ b/Sheets/角色表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UserDocuments\GamesDesign\UnityXmlRW\Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{167931CA-5ABB-41F7-B85E-CE44A1C3096E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0A5DDCC-A978-4D47-B5A2-7B8F0FA75ABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,10 +87,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Images/default</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -104,6 +100,14 @@
   </si>
   <si>
     <t>奴才</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -215,9 +219,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{01867D14-438D-468E-8417-C64A2898D8FF}" name="charactersTable" displayName="charactersTable" ref="A1:C7" tableType="xml" totalsRowShown="0" connectionId="2">
-  <autoFilter ref="A1:C7" xr:uid="{01867D14-438D-468E-8417-C64A2898D8FF}"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{01867D14-438D-468E-8417-C64A2898D8FF}" name="charactersTable" displayName="charactersTable" ref="A1:D7" tableType="xml" totalsRowShown="0" connectionId="2">
+  <autoFilter ref="A1:D7" xr:uid="{01867D14-438D-468E-8417-C64A2898D8FF}"/>
+  <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{A862560A-D215-4805-9E74-188B761BE6B3}" uniqueName="id" name="id">
       <xmlColumnPr mapId="2" xpath="/characters/character/@id" xmlDataType="string"/>
     </tableColumn>
@@ -227,6 +231,7 @@
     <tableColumn id="3" xr3:uid="{6C0D92A3-4EB4-4660-AA54-A7585A74D393}" uniqueName="display" name="立绘位置">
       <xmlColumnPr mapId="2" xpath="/characters/character/@display" xmlDataType="string"/>
     </tableColumn>
+    <tableColumn id="4" xr3:uid="{924CFEB3-DBA6-4EE4-B1FF-1A841114A395}" uniqueName="4" name="备注"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -506,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{696EF98A-0CD1-4A17-9B1A-8A9C2C8D397B}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -519,18 +524,21 @@
     <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -539,7 +547,7 @@
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -547,10 +555,10 @@
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -558,38 +566,39 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
